--- a/biology/Botanique/Maianthemum/Maianthemum.xlsx
+++ b/biology/Botanique/Maianthemum/Maianthemum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Maianthemum est un genre de petites plantes herbacées de la famille des Liliaceae selon la classification classique, ou des Ruscaceae (ou des Asparagaceae) selon la classification phylogénétique.
 Dans d'autres classifications, Maianthemum a été placé dans la famille des Convallariaceae.
@@ -514,8 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Synonymes
-Ce genre connait de nombreux synonymes, non valides, rejetés ou superflus :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Ce genre connait de nombreux synonymes, non valides, rejetés ou superflus :
 Asteranthemum Kunth 1850 ;
 Bifolium Gaertn., E.Mey. &amp; Schreb. 1799 ;
 Jocaste Kunth 1850 ;
@@ -532,8 +549,43 @@
 Tovaria Neck. ex Baker 1875 ;
 Unifolium Zinn 1757 ;
 Vagnera Adans. 1763 ;
-Valentinia Heist. ex Fabr. 1763.
-Liste d'espèces
+Valentinia Heist. ex Fabr. 1763.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Maianthemum</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maianthemum</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Nomenclature et systématique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Maianthemum amoenum (HLWendl.) LaFrankie
 Maianthemum atropurpureum (Franch.) LaFrankie
 Maianthemum bicolor (Nakai) Cubey
